--- a/countries.xlsx
+++ b/countries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\AppData\Local\Temp\fz3temp-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2767F9C-BBA1-4C19-B3E4-DAEF07DF2C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DC8C49-9ACD-44C7-9241-2B2FB8868D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC4BFFBD-6ECB-3446-AE5A-428986AB9399}"/>
+    <workbookView xWindow="12165" yWindow="2760" windowWidth="26925" windowHeight="15435" xr2:uid="{BC4BFFBD-6ECB-3446-AE5A-428986AB9399}"/>
   </bookViews>
   <sheets>
     <sheet name="!!!!!" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="764">
   <si>
     <t>Континент</t>
   </si>
@@ -186,6 +194,9 @@
     <t>BHR</t>
   </si>
   <si>
+    <t>Беларусь</t>
+  </si>
+  <si>
     <t>BLR</t>
   </si>
   <si>
@@ -411,6 +422,9 @@
     <t>DNK</t>
   </si>
   <si>
+    <t>Демократическая республика Конго</t>
+  </si>
+  <si>
     <t>COD</t>
   </si>
   <si>
@@ -432,6 +446,9 @@
     <t>DMA</t>
   </si>
   <si>
+    <t>Доминиканская республика</t>
+  </si>
+  <si>
     <t>DOM</t>
   </si>
   <si>
@@ -591,9 +608,15 @@
     <t>COL</t>
   </si>
   <si>
+    <t>Коморские Острова</t>
+  </si>
+  <si>
     <t>COM</t>
   </si>
   <si>
+    <t>Корейская Народно-Демократическая Республика (Северная Корея)</t>
+  </si>
+  <si>
     <t>PRK</t>
   </si>
   <si>
@@ -657,6 +680,9 @@
     <t>LBN</t>
   </si>
   <si>
+    <t>Ливийская Арабская Джамахирия</t>
+  </si>
+  <si>
     <t>LBY</t>
   </si>
   <si>
@@ -918,6 +944,9 @@
     <t>PLW</t>
   </si>
   <si>
+    <t>Палестинская территория, оккупированная</t>
+  </si>
+  <si>
     <t>PSE</t>
   </si>
   <si>
@@ -927,6 +956,9 @@
     <t>PAN</t>
   </si>
   <si>
+    <t>Папский престол (Государство - город Ватикан)</t>
+  </si>
+  <si>
     <t>VAT</t>
   </si>
   <si>
@@ -960,21 +992,39 @@
     <t>PRT</t>
   </si>
   <si>
+    <t>Пуэрто-Рика</t>
+  </si>
+  <si>
     <t>PRI</t>
   </si>
   <si>
+    <t>Республика Абхазия</t>
+  </si>
+  <si>
     <t>ABH</t>
   </si>
   <si>
+    <t>Республика Конго</t>
+  </si>
+  <si>
     <t>COG</t>
   </si>
   <si>
+    <t>Республика Корея (Южная Корея)</t>
+  </si>
+  <si>
     <t>KOR</t>
   </si>
   <si>
+    <t>Республика Македония</t>
+  </si>
+  <si>
     <t>MKD</t>
   </si>
   <si>
+    <t>Республика Науру</t>
+  </si>
+  <si>
     <t>NRU</t>
   </si>
   <si>
@@ -984,6 +1034,9 @@
     <t>REU</t>
   </si>
   <si>
+    <t>Российская Федерация</t>
+  </si>
+  <si>
     <t>RUS</t>
   </si>
   <si>
@@ -1023,6 +1076,12 @@
     <t>SAU</t>
   </si>
   <si>
+    <t>Сахарская Арабская Демократическая республика</t>
+  </si>
+  <si>
+    <t>Свазиленд (Эсватини)</t>
+  </si>
+  <si>
     <t>SWZ</t>
   </si>
   <si>
@@ -1095,6 +1154,9 @@
     <t>SGP</t>
   </si>
   <si>
+    <t>Сирийская Арабская Республика</t>
+  </si>
+  <si>
     <t>SYR</t>
   </si>
   <si>
@@ -1110,9 +1172,15 @@
     <t>SVN</t>
   </si>
   <si>
+    <t>Соединенное Королевство Великобритании и Северной Ирландии</t>
+  </si>
+  <si>
     <t>GBR</t>
   </si>
   <si>
+    <t>Соединенные Штаты Америки</t>
+  </si>
+  <si>
     <t>USA</t>
   </si>
   <si>
@@ -1245,6 +1313,9 @@
     <t>FRO</t>
   </si>
   <si>
+    <t>Федеративные Штаты Микронезии</t>
+  </si>
+  <si>
     <t>Фиджи</t>
   </si>
   <si>
@@ -1293,6 +1364,9 @@
     <t>HRV</t>
   </si>
   <si>
+    <t>Центрально-африканская республика</t>
+  </si>
+  <si>
     <t>CAF</t>
   </si>
   <si>
@@ -1308,6 +1382,9 @@
     <t>MNE</t>
   </si>
   <si>
+    <t>Чешская Республика</t>
+  </si>
+  <si>
     <t>CZE</t>
   </si>
   <si>
@@ -1392,6 +1469,9 @@
     <t>OST</t>
   </si>
   <si>
+    <t>Южно-Африканская Республика</t>
+  </si>
+  <si>
     <t>ZAF</t>
   </si>
   <si>
@@ -2245,78 +2325,6 @@
   </si>
   <si>
     <t>jp</t>
-  </si>
-  <si>
-    <t>Белоруссия</t>
-  </si>
-  <si>
-    <t>ДР Конго</t>
-  </si>
-  <si>
-    <t>Доминикана</t>
-  </si>
-  <si>
-    <t>Коморы</t>
-  </si>
-  <si>
-    <t>КНДР</t>
-  </si>
-  <si>
-    <t>Ливия</t>
-  </si>
-  <si>
-    <t>Палестина</t>
-  </si>
-  <si>
-    <t>Ватикан</t>
-  </si>
-  <si>
-    <t>Пуэрто-Рико</t>
-  </si>
-  <si>
-    <t>Конго</t>
-  </si>
-  <si>
-    <t>Корея</t>
-  </si>
-  <si>
-    <t>Северная Македония</t>
-  </si>
-  <si>
-    <t>Науру</t>
-  </si>
-  <si>
-    <t>Россия</t>
-  </si>
-  <si>
-    <t>Эсватини</t>
-  </si>
-  <si>
-    <t>Сирия</t>
-  </si>
-  <si>
-    <t>Великобритания</t>
-  </si>
-  <si>
-    <t>США</t>
-  </si>
-  <si>
-    <t>Микронезия</t>
-  </si>
-  <si>
-    <t>ЦАР</t>
-  </si>
-  <si>
-    <t>Чехия</t>
-  </si>
-  <si>
-    <t>ЮАР</t>
-  </si>
-  <si>
-    <t>SEY</t>
-  </si>
-  <si>
-    <t>Республика Абхазия</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2373,11 +2381,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2393,9 +2399,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2433,7 +2439,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2539,7 +2545,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2691,123 +2697,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFC85D5-0E4A-114F-B58B-CB4CF6D9DE75}">
   <dimension ref="A1:AG423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.59765625" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="B1" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="D1" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="E1" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="F1" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="G1" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="H1" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="I1" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="J1" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="K1" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="L1" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="M1" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="N1" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="O1" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="P1" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="Q1" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="R1" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="S1" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="T1" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="U1" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="V1" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="W1" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="X1" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="Y1" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="Z1" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="AA1" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="AB1" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="AC1" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="AD1" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="AE1" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="AF1" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="AG1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2827,60 +2833,60 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="K2" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="M2" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="O2" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="Q2" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="S2" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="U2" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="W2" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="Y2" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="Z2" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="AA2" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="AC2" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="AF2" t="s">
         <v>2</v>
       </c>
       <c r="AG2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -2889,68 +2895,68 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="M3" t="s">
         <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="O3" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="P3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
       <c r="R3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="S3" t="s">
         <v>6</v>
       </c>
       <c r="T3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="U3" t="s">
         <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="W3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="X3" t="s">
         <v>7</v>
       </c>
       <c r="Y3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="Z3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="AA3" t="s">
         <v>6</v>
       </c>
       <c r="AB3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="AC3" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="AD3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3041,14 +3047,14 @@
         <v>10</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3139,14 +3145,14 @@
         <v>13</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3237,14 +3243,14 @@
         <v>16</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3335,14 +3341,14 @@
         <v>18</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3433,14 +3439,14 @@
         <v>21</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3531,14 +3537,14 @@
         <v>23</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3629,14 +3635,14 @@
         <v>26</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3727,14 +3733,14 @@
         <v>28</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3825,14 +3831,14 @@
         <v>30</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3923,14 +3929,14 @@
         <v>33</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -4021,14 +4027,14 @@
         <v>35</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -4119,14 +4125,14 @@
         <v>38</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -4217,14 +4223,14 @@
         <v>40</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -4315,14 +4321,14 @@
         <v>42</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -4413,14 +4419,14 @@
         <v>44</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -4511,14 +4517,14 @@
         <v>46</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -4609,14 +4615,14 @@
         <v>48</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -4707,14 +4713,14 @@
         <v>50</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -4805,18 +4811,18 @@
         <v>52</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>740</v>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2">
         <v>28.032093100000001</v>
@@ -4900,21 +4906,21 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>54</v>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2">
         <v>-88.710104999999999</v>
@@ -4998,21 +5004,21 @@
         <v>0</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>56</v>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2">
         <v>4.6406511400000001</v>
@@ -5096,21 +5102,21 @@
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>58</v>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2">
         <v>2.3278525399999999</v>
@@ -5194,21 +5200,21 @@
         <v>0</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>60</v>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2">
         <v>-64.754559</v>
@@ -5292,21 +5298,21 @@
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>62</v>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2">
         <v>25.215529100000001</v>
@@ -5390,21 +5396,21 @@
         <v>0</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>64</v>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2">
         <v>-64.685385999999994</v>
@@ -5488,21 +5494,21 @@
         <v>0</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>66</v>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2">
         <v>17.7687673</v>
@@ -5586,21 +5592,21 @@
         <v>0</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>68</v>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2">
         <v>23.7985337</v>
@@ -5684,21 +5690,21 @@
         <v>0</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>70</v>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2">
         <v>-53.097830999999999</v>
@@ -5782,21 +5788,21 @@
         <v>0</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>72</v>
+      <c r="B34" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2">
         <v>-64.471469999999997</v>
@@ -5880,21 +5886,21 @@
         <v>0</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>74</v>
+      <c r="B35" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2">
         <v>114.72203</v>
@@ -5978,21 +5984,21 @@
         <v>0</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>76</v>
+      <c r="B36" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2">
         <v>-1.7545660000000001</v>
@@ -6076,21 +6082,21 @@
         <v>0</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>78</v>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2">
         <v>29.8751216</v>
@@ -6174,21 +6180,21 @@
         <v>0</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>80</v>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2">
         <v>90.401881599999996</v>
@@ -6272,21 +6278,21 @@
         <v>0</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>82</v>
+      <c r="B39" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2">
         <v>167.68644599999999</v>
@@ -6370,21 +6376,21 @@
         <v>0</v>
       </c>
       <c r="AF39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>84</v>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2">
         <v>19.395591199999998</v>
@@ -6468,21 +6474,21 @@
         <v>0</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>86</v>
+      <c r="B41" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2">
         <v>-66.181841000000006</v>
@@ -6566,21 +6572,21 @@
         <v>0</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>88</v>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D42" s="2">
         <v>-64.803015000000002</v>
@@ -6664,21 +6670,21 @@
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>90</v>
+      <c r="B43" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D43" s="2">
         <v>106.299147</v>
@@ -6762,21 +6768,21 @@
         <v>0</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>92</v>
+      <c r="B44" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D44" s="2">
         <v>11.7886287</v>
@@ -6860,21 +6866,21 @@
         <v>0</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>94</v>
+      <c r="B45" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D45" s="2">
         <v>-72.685275000000004</v>
@@ -6958,21 +6964,21 @@
         <v>0</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>96</v>
+      <c r="B46" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D46" s="2">
         <v>-58.982025</v>
@@ -7056,21 +7062,21 @@
         <v>0</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>98</v>
+      <c r="B47" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D47" s="2">
         <v>-15.396013</v>
@@ -7154,21 +7160,21 @@
         <v>0</v>
       </c>
       <c r="AF47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>100</v>
+      <c r="B48" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D48" s="2">
         <v>-1.2167657000000001</v>
@@ -7252,21 +7258,21 @@
         <v>0</v>
       </c>
       <c r="AF48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>102</v>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2">
         <v>-90.364819999999995</v>
@@ -7350,21 +7356,21 @@
         <v>0</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>104</v>
+      <c r="B50" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D50" s="2">
         <v>-10.940666</v>
@@ -7448,21 +7454,21 @@
         <v>0</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>106</v>
+      <c r="B51" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D51" s="2">
         <v>-14.949724</v>
@@ -7546,21 +7552,21 @@
         <v>0</v>
       </c>
       <c r="AF51" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>108</v>
+      <c r="B52" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D52" s="2">
         <v>10.385780499999999</v>
@@ -7644,21 +7650,21 @@
         <v>0</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>110</v>
+      <c r="B53" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D53" s="2">
         <v>-2.5723905999999999</v>
@@ -7742,21 +7748,21 @@
         <v>0</v>
       </c>
       <c r="AF53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>112</v>
+      <c r="B54" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D54" s="2">
         <v>-86.615166000000002</v>
@@ -7840,21 +7846,21 @@
         <v>0</v>
       </c>
       <c r="AF54" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>114</v>
+      <c r="B55" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D55" s="2">
         <v>114.113805</v>
@@ -7938,21 +7944,21 @@
         <v>0</v>
       </c>
       <c r="AF55" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>116</v>
+      <c r="B56" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D56" s="2">
         <v>-61.682201999999997</v>
@@ -8036,21 +8042,21 @@
         <v>0</v>
       </c>
       <c r="AF56" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>118</v>
+      <c r="B57" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D57" s="2">
         <v>-41.341911000000003</v>
@@ -8134,21 +8140,21 @@
         <v>0</v>
       </c>
       <c r="AF57" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>120</v>
+      <c r="B58" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D58" s="2">
         <v>22.955557899999999</v>
@@ -8232,21 +8238,21 @@
         <v>0</v>
       </c>
       <c r="AF58" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>122</v>
+      <c r="B59" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D59" s="2">
         <v>43.507802499999997</v>
@@ -8330,21 +8336,21 @@
         <v>0</v>
       </c>
       <c r="AF59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG59" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>124</v>
+      <c r="B60" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D60" s="2">
         <v>144.76791</v>
@@ -8428,21 +8434,21 @@
         <v>0</v>
       </c>
       <c r="AF60" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>126</v>
+      <c r="B61" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D61" s="2">
         <v>10.028009900000001</v>
@@ -8526,21 +8532,21 @@
         <v>0</v>
       </c>
       <c r="AF61" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>741</v>
+      <c r="B62" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D62" s="2">
         <v>23.643961099999999</v>
@@ -8624,21 +8630,21 @@
         <v>0</v>
       </c>
       <c r="AF62" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG62" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>129</v>
+      <c r="B63" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D63" s="2">
         <v>-2.1268994000000001</v>
@@ -8722,21 +8728,21 @@
         <v>0</v>
       </c>
       <c r="AF63" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>131</v>
+      <c r="B64" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D64" s="2">
         <v>42.560675400000001</v>
@@ -8820,21 +8826,21 @@
         <v>0</v>
       </c>
       <c r="AF64" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG64" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>133</v>
+      <c r="B65" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D65" s="2">
         <v>-61.357726</v>
@@ -8918,21 +8924,21 @@
         <v>0</v>
       </c>
       <c r="AF65" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>742</v>
+      <c r="B66" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D66" s="2">
         <v>-70.505689000000004</v>
@@ -9016,21 +9022,21 @@
         <v>0</v>
       </c>
       <c r="AF66" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AG66" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>136</v>
+      <c r="B67" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D67" s="2">
         <v>29.861901</v>
@@ -9114,21 +9120,21 @@
         <v>0</v>
       </c>
       <c r="AF67" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>138</v>
+      <c r="B68" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D68" s="2">
         <v>27.774759499999998</v>
@@ -9212,21 +9218,21 @@
         <v>0</v>
       </c>
       <c r="AF68" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AG68" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>140</v>
+      <c r="B69" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D69" s="2">
         <v>29.8514412</v>
@@ -9310,21 +9316,21 @@
         <v>0</v>
       </c>
       <c r="AF69" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AG69" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>142</v>
+      <c r="B70" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D70" s="2">
         <v>35.004446899999998</v>
@@ -9408,21 +9414,21 @@
         <v>0</v>
       </c>
       <c r="AF70" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>144</v>
+      <c r="B71" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D71" s="2">
         <v>79.611976100000007</v>
@@ -9506,21 +9512,21 @@
         <v>0</v>
       </c>
       <c r="AF71" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AG71" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>146</v>
+      <c r="B72" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D72" s="2">
         <v>117.24011400000001</v>
@@ -9604,21 +9610,21 @@
         <v>0</v>
       </c>
       <c r="AF72" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AG72" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>148</v>
+      <c r="B73" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D73" s="2">
         <v>36.771360999999999</v>
@@ -9702,21 +9708,21 @@
         <v>0</v>
       </c>
       <c r="AF73" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG73" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>150</v>
+      <c r="B74" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D74" s="2">
         <v>43.743531500000003</v>
@@ -9800,21 +9806,21 @@
         <v>0</v>
       </c>
       <c r="AF74" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AG74" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>152</v>
+      <c r="B75" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D75" s="2">
         <v>54.274070000000002</v>
@@ -9898,21 +9904,21 @@
         <v>0</v>
       </c>
       <c r="AF75" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AG75" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>154</v>
+      <c r="B76" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D76" s="2">
         <v>-8.1379356999999999</v>
@@ -9996,21 +10002,21 @@
         <v>0</v>
       </c>
       <c r="AF76" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>156</v>
+      <c r="B77" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D77" s="2">
         <v>-18.573962000000002</v>
@@ -10094,21 +10100,21 @@
         <v>0</v>
       </c>
       <c r="AF77" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG77" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>158</v>
+      <c r="B78" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D78" s="2">
         <v>-3.6475504999999999</v>
@@ -10192,21 +10198,21 @@
         <v>0</v>
       </c>
       <c r="AF78" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AG78" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>160</v>
+      <c r="B79" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D79" s="2">
         <v>12.070013400000001</v>
@@ -10290,21 +10296,21 @@
         <v>0</v>
       </c>
       <c r="AF79" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG79" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>162</v>
+      <c r="B80" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D80" s="2">
         <v>47.586761899999999</v>
@@ -10388,21 +10394,21 @@
         <v>0</v>
       </c>
       <c r="AF80" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AG80" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>164</v>
+      <c r="B81" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D81" s="2">
         <v>-23.959887999999999</v>
@@ -10486,21 +10492,21 @@
         <v>0</v>
       </c>
       <c r="AF81" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG81" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>166</v>
+      <c r="B82" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D82" s="2">
         <v>67.291493599999995</v>
@@ -10584,21 +10590,21 @@
         <v>0</v>
       </c>
       <c r="AF82" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG82" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>168</v>
+      <c r="B83" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D83" s="2">
         <v>104.906943</v>
@@ -10682,21 +10688,21 @@
         <v>0</v>
       </c>
       <c r="AF83" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG83" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>170</v>
+      <c r="B84" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D84" s="2">
         <v>12.739641600000001</v>
@@ -10780,21 +10786,21 @@
         <v>0</v>
       </c>
       <c r="AF84" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AG84" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>172</v>
+      <c r="B85" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D85" s="2">
         <v>-98.307770000000005</v>
@@ -10878,21 +10884,21 @@
         <v>0</v>
       </c>
       <c r="AF85" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AG85" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>174</v>
+      <c r="B86" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D86" s="2">
         <v>51.184796300000002</v>
@@ -10976,21 +10982,21 @@
         <v>0</v>
       </c>
       <c r="AF86" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>176</v>
+      <c r="B87" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D87" s="2">
         <v>37.795939699999998</v>
@@ -11074,21 +11080,21 @@
         <v>0</v>
       </c>
       <c r="AF87" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AG87" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>178</v>
+      <c r="B88" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D88" s="2">
         <v>33.006002199999998</v>
@@ -11172,21 +11178,21 @@
         <v>0</v>
       </c>
       <c r="AF88" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AG88" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>180</v>
+      <c r="B89" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D89" s="2">
         <v>74.5416551</v>
@@ -11270,21 +11276,21 @@
         <v>0</v>
       </c>
       <c r="AF89" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>182</v>
+      <c r="B90" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D90" s="2">
         <v>-45.611105000000002</v>
@@ -11368,21 +11374,21 @@
         <v>0</v>
       </c>
       <c r="AF90" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>184</v>
+      <c r="B91" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D91" s="2">
         <v>103.819074</v>
@@ -11466,21 +11472,21 @@
         <v>0</v>
       </c>
       <c r="AF91" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>186</v>
+      <c r="B92" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D92" s="2">
         <v>-73.081146000000004</v>
@@ -11564,21 +11570,21 @@
         <v>0</v>
       </c>
       <c r="AF92" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>743</v>
+      <c r="B93" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D93" s="2">
         <v>43.6825397</v>
@@ -11662,21 +11668,21 @@
         <v>0</v>
       </c>
       <c r="AF93" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AG93" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>744</v>
+      <c r="B94" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D94" s="2">
         <v>127.19248</v>
@@ -11760,21 +11766,21 @@
         <v>0</v>
       </c>
       <c r="AF94" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AG94" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>190</v>
+      <c r="B95" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D95" s="2">
         <v>-84.192087999999998</v>
@@ -11858,21 +11864,21 @@
         <v>0</v>
       </c>
       <c r="AF95" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AG95" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>192</v>
+      <c r="B96" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D96" s="2">
         <v>-5.5692157</v>
@@ -11956,21 +11962,21 @@
         <v>0</v>
       </c>
       <c r="AF96" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>194</v>
+      <c r="B97" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D97" s="2">
         <v>-79.016053999999997</v>
@@ -12054,21 +12060,21 @@
         <v>0</v>
       </c>
       <c r="AF97" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AG97" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>196</v>
+      <c r="B98" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D98" s="2">
         <v>47.5870046</v>
@@ -12152,21 +12158,21 @@
         <v>0</v>
       </c>
       <c r="AF98" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>198</v>
+      <c r="B99" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D99" s="2">
         <v>-68.971193999999997</v>
@@ -12250,21 +12256,21 @@
         <v>0</v>
       </c>
       <c r="AF99" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AG99" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>200</v>
+      <c r="B100" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D100" s="2">
         <v>103.737724</v>
@@ -12348,21 +12354,21 @@
         <v>0</v>
       </c>
       <c r="AF100" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AG100" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>202</v>
+      <c r="B101" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D101" s="2">
         <v>24.912359800000001</v>
@@ -12446,21 +12452,21 @@
         <v>0</v>
       </c>
       <c r="AF101" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>204</v>
+      <c r="B102" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D102" s="2">
         <v>28.2272313</v>
@@ -12544,21 +12550,21 @@
         <v>0</v>
       </c>
       <c r="AF102" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AG102" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>206</v>
+      <c r="B103" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D103" s="2">
         <v>-9.3220756999999992</v>
@@ -12642,21 +12648,21 @@
         <v>0</v>
       </c>
       <c r="AF103" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>208</v>
+      <c r="B104" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D104" s="2">
         <v>35.880160699999998</v>
@@ -12740,21 +12746,21 @@
         <v>0</v>
       </c>
       <c r="AF104" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AG104" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>745</v>
+      <c r="B105" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D105" s="2">
         <v>18.008661700000001</v>
@@ -12838,21 +12844,21 @@
         <v>0</v>
       </c>
       <c r="AF105" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AG105" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>211</v>
+      <c r="B106" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D106" s="2">
         <v>23.8871936</v>
@@ -12936,21 +12942,21 @@
         <v>0</v>
       </c>
       <c r="AF106" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>213</v>
+      <c r="B107" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D107" s="2">
         <v>9.5357431199999994</v>
@@ -13034,21 +13040,21 @@
         <v>0</v>
       </c>
       <c r="AF107" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>215</v>
+      <c r="B108" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D108" s="2">
         <v>6.07182201</v>
@@ -13132,21 +13138,21 @@
         <v>0</v>
       </c>
       <c r="AF108" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AG108" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>217</v>
+      <c r="B109" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D109" s="2">
         <v>57.571205499999998</v>
@@ -13230,21 +13236,21 @@
         <v>0</v>
       </c>
       <c r="AF109" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AG109" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>219</v>
+      <c r="B110" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D110" s="2">
         <v>-10.347797999999999</v>
@@ -13328,21 +13334,21 @@
         <v>0</v>
       </c>
       <c r="AF110" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AG110" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>221</v>
+      <c r="B111" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D111" s="2">
         <v>46.704736699999998</v>
@@ -13426,21 +13432,21 @@
         <v>0</v>
       </c>
       <c r="AF111" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AG111" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>223</v>
+      <c r="B112" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D112" s="2">
         <v>45.166200000000003</v>
@@ -13524,21 +13530,21 @@
         <v>0</v>
       </c>
       <c r="AF112" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AG112" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>225</v>
+      <c r="B113" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D113" s="2">
         <v>113.509321</v>
@@ -13622,21 +13628,21 @@
         <v>0</v>
       </c>
       <c r="AF113" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>227</v>
+      <c r="B114" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D114" s="2">
         <v>34.289355999999998</v>
@@ -13720,21 +13726,21 @@
         <v>0</v>
       </c>
       <c r="AF114" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AG114" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>229</v>
+      <c r="B115" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D115" s="2">
         <v>109.69762299999999</v>
@@ -13818,21 +13824,21 @@
         <v>0</v>
       </c>
       <c r="AF115" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>231</v>
+      <c r="B116" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D116" s="2">
         <v>-3.5426905999999998</v>
@@ -13916,21 +13922,21 @@
         <v>0</v>
       </c>
       <c r="AF116" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AG116" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>233</v>
+      <c r="B117" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D117" s="2">
         <v>73.457130000000006</v>
@@ -14014,21 +14020,21 @@
         <v>0</v>
       </c>
       <c r="AF117" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>235</v>
+      <c r="B118" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D118" s="2">
         <v>14.4052332</v>
@@ -14112,21 +14118,21 @@
         <v>0</v>
       </c>
       <c r="AF118" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AG118" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>237</v>
+      <c r="B119" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D119" s="2">
         <v>-8.4561578999999991</v>
@@ -14210,21 +14216,21 @@
         <v>0</v>
       </c>
       <c r="AF119" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AG119" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>239</v>
+      <c r="B120" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D120" s="2">
         <v>170.33976100000001</v>
@@ -14308,21 +14314,21 @@
         <v>0</v>
       </c>
       <c r="AF120" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG120" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>241</v>
+      <c r="B121" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D121" s="2">
         <v>-102.52345</v>
@@ -14406,21 +14412,21 @@
         <v>0</v>
       </c>
       <c r="AF121" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AG121" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>243</v>
+      <c r="B122" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D122" s="2">
         <v>35.5336754</v>
@@ -14504,21 +14510,21 @@
         <v>0</v>
       </c>
       <c r="AF122" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>245</v>
+      <c r="B123" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D123" s="2">
         <v>28.456733700000001</v>
@@ -14602,21 +14608,21 @@
         <v>0</v>
       </c>
       <c r="AF123" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>247</v>
+      <c r="B124" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D124" s="2">
         <v>7.4062767699999998</v>
@@ -14700,21 +14706,21 @@
         <v>0</v>
       </c>
       <c r="AF124" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AG124" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>249</v>
+      <c r="B125" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D125" s="2">
         <v>103.052998</v>
@@ -14798,21 +14804,21 @@
         <v>0</v>
       </c>
       <c r="AF125" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AG125" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>251</v>
+      <c r="B126" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D126" s="2">
         <v>-62.185184999999997</v>
@@ -14896,21 +14902,21 @@
         <v>0</v>
       </c>
       <c r="AF126" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG126" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>253</v>
+      <c r="B127" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D127" s="2">
         <v>96.488433200000003</v>
@@ -14994,21 +15000,21 @@
         <v>0</v>
       </c>
       <c r="AF127" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>255</v>
+      <c r="B128" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D128" s="2">
         <v>17.2096357</v>
@@ -15092,21 +15098,21 @@
         <v>0</v>
       </c>
       <c r="AF128" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AG128" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>257</v>
+      <c r="B129" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D129" s="2">
         <v>83.9158264</v>
@@ -15190,21 +15196,21 @@
         <v>0</v>
       </c>
       <c r="AF129" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>259</v>
+      <c r="B130" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D130" s="2">
         <v>9.3854588200000002</v>
@@ -15288,21 +15294,21 @@
         <v>0</v>
       </c>
       <c r="AF130" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>261</v>
+      <c r="B131" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D131" s="2">
         <v>8.0894389499999999</v>
@@ -15386,21 +15392,21 @@
         <v>0</v>
       </c>
       <c r="AF131" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>263</v>
+      <c r="B132" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D132" s="2">
         <v>5.2814479299999997</v>
@@ -15484,21 +15490,21 @@
         <v>0</v>
       </c>
       <c r="AF132" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AG132" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>265</v>
+      <c r="B133" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D133" s="2">
         <v>-85.030529999999999</v>
@@ -15582,21 +15588,21 @@
         <v>0</v>
       </c>
       <c r="AF133" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>267</v>
+      <c r="B134" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D134" s="2">
         <v>-169.86994999999999</v>
@@ -15680,21 +15686,21 @@
         <v>0</v>
       </c>
       <c r="AF134" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>269</v>
+      <c r="B135" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D135" s="2">
         <v>171.48492400000001</v>
@@ -15778,21 +15784,21 @@
         <v>0</v>
       </c>
       <c r="AF135" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AG135" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>271</v>
+      <c r="B136" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D136" s="2">
         <v>165.684924</v>
@@ -15876,21 +15882,21 @@
         <v>0</v>
       </c>
       <c r="AF136" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AG136" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>273</v>
+      <c r="B137" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D137" s="2">
         <v>15.348346599999999</v>
@@ -15974,21 +15980,21 @@
         <v>0</v>
       </c>
       <c r="AF137" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AG137" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>275</v>
+      <c r="B138" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D138" s="2">
         <v>54.300167100000003</v>
@@ -16072,21 +16078,21 @@
         <v>0</v>
       </c>
       <c r="AF138" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>277</v>
+      <c r="B139" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D139" s="2">
         <v>56.091661600000002</v>
@@ -16170,21 +16176,21 @@
         <v>0</v>
       </c>
       <c r="AF139" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AG139" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>279</v>
+      <c r="B140" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D140" s="2">
         <v>-80.912132999999997</v>
@@ -16268,21 +16274,21 @@
         <v>0</v>
       </c>
       <c r="AF140" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AG140" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>281</v>
+      <c r="B141" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D141" s="2">
         <v>-4.5387395000000001</v>
@@ -16366,21 +16372,21 @@
         <v>0</v>
       </c>
       <c r="AF141" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AG141" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>283</v>
+      <c r="B142" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D142" s="2">
         <v>167.949217</v>
@@ -16464,21 +16470,21 @@
         <v>0</v>
       </c>
       <c r="AF142" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>285</v>
+      <c r="B143" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D143" s="2">
         <v>73.520517100000006</v>
@@ -16562,21 +16568,21 @@
         <v>0</v>
       </c>
       <c r="AF143" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>287</v>
+      <c r="B144" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D144" s="2">
         <v>-159.78724</v>
@@ -16660,21 +16666,21 @@
         <v>0</v>
       </c>
       <c r="AF144" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AG144" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>289</v>
+      <c r="B145" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D145" s="2">
         <v>-128.31703999999999</v>
@@ -16758,21 +16764,21 @@
         <v>0</v>
       </c>
       <c r="AF145" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AG145" s="4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>291</v>
+      <c r="B146" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D146" s="2">
         <v>-71.973878999999997</v>
@@ -16856,21 +16862,21 @@
         <v>0</v>
       </c>
       <c r="AF146" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AG146" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>293</v>
+      <c r="B147" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D147" s="2">
         <v>69.339579400000005</v>
@@ -16954,21 +16960,21 @@
         <v>0</v>
       </c>
       <c r="AF147" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AG147" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>295</v>
+      <c r="B148" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D148" s="2">
         <v>134.40808000000001</v>
@@ -17052,21 +17058,21 @@
         <v>0</v>
       </c>
       <c r="AF148" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AG148" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>746</v>
+      <c r="B149" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D149" s="2">
         <v>35.196287099999999</v>
@@ -17150,21 +17156,21 @@
         <v>0</v>
       </c>
       <c r="AF149" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AG149" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>298</v>
+      <c r="B150" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D150" s="2">
         <v>-80.119152</v>
@@ -17248,21 +17254,21 @@
         <v>0</v>
       </c>
       <c r="AF150" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>747</v>
+      <c r="B151" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D151" s="2">
         <v>12.4338718</v>
@@ -17346,21 +17352,21 @@
         <v>0</v>
       </c>
       <c r="AF151" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>301</v>
+      <c r="B152" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D152" s="2">
         <v>145.207448</v>
@@ -17444,21 +17450,21 @@
         <v>0</v>
       </c>
       <c r="AF152" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>303</v>
+      <c r="B153" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D153" s="2">
         <v>-58.400137000000001</v>
@@ -17542,21 +17548,21 @@
         <v>0</v>
       </c>
       <c r="AF153" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B154" s="6" t="s">
-        <v>305</v>
+      <c r="B154" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D154" s="2">
         <v>-74.382427000000007</v>
@@ -17640,21 +17646,21 @@
         <v>0</v>
       </c>
       <c r="AF154" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AG154" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>307</v>
+      <c r="B155" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D155" s="2">
         <v>19.390128399999998</v>
@@ -17738,21 +17744,21 @@
         <v>0</v>
       </c>
       <c r="AF155" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>309</v>
+      <c r="B156" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D156" s="2">
         <v>-8.5010435999999991</v>
@@ -17836,21 +17842,21 @@
         <v>0</v>
       </c>
       <c r="AF156" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AG156" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>748</v>
+      <c r="B157" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D157" s="2">
         <v>-66.473076000000006</v>
@@ -17934,21 +17940,21 @@
         <v>0</v>
       </c>
       <c r="AF157" s="2" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>763</v>
+      <c r="B158" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D158" s="2">
         <v>41.005009999999999</v>
@@ -18032,21 +18038,21 @@
         <v>0</v>
       </c>
       <c r="AF158" s="2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>749</v>
+      <c r="B159" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D159" s="2">
         <v>15.2196576</v>
@@ -18130,21 +18136,21 @@
         <v>0</v>
       </c>
       <c r="AF159" s="2" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>750</v>
+      <c r="B160" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="D160" s="2">
         <v>127.839161</v>
@@ -18228,21 +18234,21 @@
         <v>0</v>
       </c>
       <c r="AF160" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AG160" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>751</v>
+      <c r="B161" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D161" s="2">
         <v>21.6821135</v>
@@ -18326,21 +18332,21 @@
         <v>0</v>
       </c>
       <c r="AF161" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="AG161" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>752</v>
+      <c r="B162" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D162" s="2">
         <v>166.932568</v>
@@ -18424,21 +18430,21 @@
         <v>0</v>
       </c>
       <c r="AF162" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="AG162" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>317</v>
+      <c r="B163" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D163" s="2">
         <v>55.554600000000001</v>
@@ -18522,21 +18528,21 @@
         <v>0</v>
       </c>
       <c r="AF163" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>753</v>
+      <c r="B164" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="D164" s="2">
         <v>96.686561100000006</v>
@@ -18620,21 +18626,21 @@
         <v>0</v>
       </c>
       <c r="AF164" s="2" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="AG164" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>320</v>
+      <c r="B165" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D165" s="2">
         <v>29.9198852</v>
@@ -18718,21 +18724,21 @@
         <v>0</v>
       </c>
       <c r="AF165" s="2" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="AG165" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>322</v>
+      <c r="B166" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="D166" s="2">
         <v>24.972930399999999</v>
@@ -18816,21 +18822,21 @@
         <v>0</v>
       </c>
       <c r="AF166" s="2" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="AG166" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>324</v>
+      <c r="B167" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="D167" s="2">
         <v>-172.16485</v>
@@ -18914,21 +18920,21 @@
         <v>0</v>
       </c>
       <c r="AF167" s="2" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="AG167" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>326</v>
+      <c r="B168" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D168" s="2">
         <v>12.4592233</v>
@@ -19012,21 +19018,21 @@
         <v>0</v>
       </c>
       <c r="AF168" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="AG168" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>328</v>
+      <c r="B169" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="D169" s="2">
         <v>6.7242965799999999</v>
@@ -19110,21 +19116,21 @@
         <v>0</v>
       </c>
       <c r="AF169" s="2" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>330</v>
+      <c r="B170" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D170" s="2">
         <v>44.5368627</v>
@@ -19208,54 +19214,115 @@
         <v>0</v>
       </c>
       <c r="AF170" s="2" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A171" s="1"/>
-      <c r="B171" s="5"/>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
-      <c r="AA171" s="2"/>
-      <c r="AB171" s="2"/>
-      <c r="AC171" s="2"/>
-      <c r="AD171" s="2"/>
+      <c r="D171" s="2">
+        <v>-12.219828</v>
+      </c>
+      <c r="E171" s="2">
+        <v>24.229567400000001</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0</v>
+      </c>
+      <c r="I171" s="2">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2">
+        <v>0</v>
+      </c>
+      <c r="K171" s="2">
+        <v>1</v>
+      </c>
+      <c r="L171" s="2">
+        <v>0</v>
+      </c>
+      <c r="M171" s="2">
+        <v>0</v>
+      </c>
+      <c r="N171" s="2">
+        <v>0</v>
+      </c>
+      <c r="O171" s="2">
+        <v>0</v>
+      </c>
+      <c r="P171" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="2">
+        <v>1</v>
+      </c>
+      <c r="R171" s="2">
+        <v>1</v>
+      </c>
+      <c r="S171" s="2">
+        <v>0</v>
+      </c>
+      <c r="T171" s="2">
+        <v>0</v>
+      </c>
+      <c r="U171" s="2">
+        <v>0</v>
+      </c>
+      <c r="V171" s="2">
+        <v>0</v>
+      </c>
+      <c r="W171" s="2">
+        <v>1</v>
+      </c>
+      <c r="X171" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y171" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD171" s="2">
+        <v>0</v>
+      </c>
       <c r="AF171" s="2"/>
-      <c r="AG171" s="2"/>
-    </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG171" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>754</v>
+      <c r="B172" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="D172" s="2">
         <v>31.481936900000001</v>
@@ -19339,21 +19406,21 @@
         <v>0</v>
       </c>
       <c r="AF172" s="2" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="AG172" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>333</v>
+      <c r="B173" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="D173" s="2">
         <v>-9.5477942000000002</v>
@@ -19437,21 +19504,21 @@
         <v>0</v>
       </c>
       <c r="AF173" s="2" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="AG173" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>335</v>
+      <c r="B174" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="D174" s="2">
         <v>145.619697</v>
@@ -19535,22 +19602,20 @@
         <v>0</v>
       </c>
       <c r="AF174" s="2" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="AG174" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>762</v>
-      </c>
+      <c r="B175" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175" s="2"/>
       <c r="D175" s="2">
         <v>55.476032799999999</v>
       </c>
@@ -19634,18 +19699,18 @@
       </c>
       <c r="AF175" s="2"/>
       <c r="AG175" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>338</v>
+      <c r="B176" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="D176" s="2">
         <v>-62.840677999999997</v>
@@ -19729,21 +19794,21 @@
         <v>0</v>
       </c>
       <c r="AF176" s="2" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="AG176" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>340</v>
+      <c r="B177" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="D177" s="2">
         <v>-63.059728999999997</v>
@@ -19827,21 +19892,21 @@
         <v>0</v>
       </c>
       <c r="AF177" s="2" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="AG177" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>342</v>
+      <c r="B178" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="D178" s="2">
         <v>-56.303198000000002</v>
@@ -19925,21 +19990,21 @@
         <v>0</v>
       </c>
       <c r="AF178" s="2" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="AG178" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>344</v>
+      <c r="B179" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="D179" s="2">
         <v>-14.473492</v>
@@ -20023,21 +20088,21 @@
         <v>0</v>
       </c>
       <c r="AF179" s="2" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="AG179" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B180" s="6" t="s">
-        <v>346</v>
+      <c r="B180" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="D180" s="2">
         <v>-61.201296999999997</v>
@@ -20121,21 +20186,21 @@
         <v>0</v>
       </c>
       <c r="AF180" s="2" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="AG180" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>348</v>
+      <c r="B181" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="D181" s="2">
         <v>-62.687553000000001</v>
@@ -20219,21 +20284,21 @@
         <v>0</v>
       </c>
       <c r="AF181" s="2" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="AG181" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>350</v>
+      <c r="B182" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="D182" s="2">
         <v>-60.969698999999999</v>
@@ -20317,21 +20382,21 @@
         <v>0</v>
       </c>
       <c r="AF182" s="2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="AG182" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>352</v>
+      <c r="B183" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="D183" s="2">
         <v>20.7895833</v>
@@ -20415,21 +20480,21 @@
         <v>0</v>
       </c>
       <c r="AF183" s="2" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="AG183" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>354</v>
+      <c r="B184" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="D184" s="2">
         <v>103.817256</v>
@@ -20513,21 +20578,21 @@
         <v>0</v>
       </c>
       <c r="AF184" s="2" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="AG184" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>755</v>
+      <c r="B185" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="D185" s="2">
         <v>38.507882000000002</v>
@@ -20611,21 +20676,21 @@
         <v>0</v>
       </c>
       <c r="AF185" s="2" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="AG185" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>357</v>
+      <c r="B186" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D186" s="2">
         <v>19.479052200000002</v>
@@ -20709,21 +20774,21 @@
         <v>0</v>
       </c>
       <c r="AF186" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="AG186" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>359</v>
+      <c r="B187" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D187" s="2">
         <v>14.804442399999999</v>
@@ -20807,21 +20872,21 @@
         <v>0</v>
       </c>
       <c r="AF187" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="AG187" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>756</v>
+      <c r="B188" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="D188" s="2">
         <v>-2.8656315999999999</v>
@@ -20905,21 +20970,21 @@
         <v>0</v>
       </c>
       <c r="AF188" s="2" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="AG188" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>757</v>
+      <c r="B189" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="D189" s="2">
         <v>-112.46167</v>
@@ -21003,21 +21068,21 @@
         <v>0</v>
       </c>
       <c r="AF189" s="2" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="AG189" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B190" s="6" t="s">
-        <v>363</v>
+      <c r="B190" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="D190" s="2">
         <v>159.63287700000001</v>
@@ -21101,21 +21166,21 @@
         <v>0</v>
       </c>
       <c r="AF190" s="2" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="AG190" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>365</v>
+      <c r="B191" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="D191" s="2">
         <v>45.707144900000003</v>
@@ -21199,21 +21264,21 @@
         <v>0</v>
       </c>
       <c r="AF191" s="2" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="AG191" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>367</v>
+      <c r="B192" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="D192" s="2">
         <v>29.9404681</v>
@@ -21297,21 +21362,21 @@
         <v>0</v>
       </c>
       <c r="AF192" s="2" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="AG192" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>369</v>
+      <c r="B193" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="D193" s="2">
         <v>-55.912345999999999</v>
@@ -21395,21 +21460,21 @@
         <v>0</v>
       </c>
       <c r="AF193" s="2" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="AG193" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>371</v>
+      <c r="B194" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="D194" s="2">
         <v>-11.792712</v>
@@ -21493,21 +21558,21 @@
         <v>0</v>
       </c>
       <c r="AF194" s="2" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="AG194" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>373</v>
+      <c r="B195" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="D195" s="2">
         <v>71.013626299999999</v>
@@ -21591,21 +21656,21 @@
         <v>0</v>
       </c>
       <c r="AF195" s="2" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="AG195" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B196" s="6" t="s">
-        <v>375</v>
+      <c r="B196" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="D196" s="2">
         <v>120.954273</v>
@@ -21689,21 +21754,21 @@
         <v>0</v>
       </c>
       <c r="AF196" s="2" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="AG196" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>377</v>
+      <c r="B197" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="D197" s="2">
         <v>101.002881</v>
@@ -21787,21 +21852,21 @@
         <v>0</v>
       </c>
       <c r="AF197" s="2" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="AG197" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>379</v>
+      <c r="B198" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="D198" s="2">
         <v>34.813099800000003</v>
@@ -21885,21 +21950,21 @@
         <v>0</v>
       </c>
       <c r="AF198" s="2" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AG198" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>381</v>
+      <c r="B199" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D199" s="2">
         <v>125.84439</v>
@@ -21983,21 +22048,21 @@
         <v>0</v>
       </c>
       <c r="AF199" s="2" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="AG199" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B200" s="6" t="s">
-        <v>383</v>
+      <c r="B200" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="D200" s="2">
         <v>0.96232845</v>
@@ -22081,21 +22146,21 @@
         <v>0</v>
       </c>
       <c r="AF200" s="2" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="AG200" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>385</v>
+      <c r="B201" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="D201" s="2">
         <v>-174.80986999999999</v>
@@ -22179,21 +22244,21 @@
         <v>0</v>
       </c>
       <c r="AF201" s="2" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="AG201" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>387</v>
+      <c r="B202" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="D202" s="2">
         <v>-61.265678999999999</v>
@@ -22277,21 +22342,21 @@
         <v>0</v>
       </c>
       <c r="AF202" s="2" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="AG202" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>389</v>
+      <c r="B203" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="D203" s="2">
         <v>9.5528835900000004</v>
@@ -22375,21 +22440,21 @@
         <v>0</v>
       </c>
       <c r="AF203" s="2" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="AG203" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>391</v>
+      <c r="B204" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="D204" s="2">
         <v>59.371000199999997</v>
@@ -22473,21 +22538,21 @@
         <v>0</v>
       </c>
       <c r="AF204" s="2" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="AG204" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>393</v>
+      <c r="B205" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="D205" s="2">
         <v>35.168953500000001</v>
@@ -22571,21 +22636,21 @@
         <v>0</v>
       </c>
       <c r="AF205" s="2" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="AG205" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>395</v>
+      <c r="B206" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="D206" s="2">
         <v>32.3690797</v>
@@ -22669,21 +22734,21 @@
         <v>0</v>
       </c>
       <c r="AF206" s="2" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="AG206" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>397</v>
+      <c r="B207" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="D207" s="2">
         <v>63.140015300000002</v>
@@ -22767,21 +22832,21 @@
         <v>0</v>
       </c>
       <c r="AF207" s="2" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="AG207" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>399</v>
+      <c r="B208" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="D208" s="2">
         <v>31.383264700000002</v>
@@ -22865,21 +22930,21 @@
         <v>0</v>
       </c>
       <c r="AF208" s="2" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="AG208" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>401</v>
+      <c r="B209" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="D209" s="2">
         <v>-177.34835000000001</v>
@@ -22963,21 +23028,21 @@
         <v>0</v>
       </c>
       <c r="AF209" s="2" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="AG209" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>403</v>
+      <c r="B210" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="D210" s="2">
         <v>-56.018070999999999</v>
@@ -23061,21 +23126,21 @@
         <v>0</v>
       </c>
       <c r="AF210" s="2" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="AG210" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>468</v>
+      <c r="B211" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="D211" s="2">
         <v>-6.8809541999999997</v>
@@ -23159,18 +23224,18 @@
         <v>0</v>
       </c>
       <c r="AF211" s="2" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="AG211" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B212" s="6" t="s">
-        <v>758</v>
+      <c r="B212" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2">
@@ -23256,18 +23321,18 @@
       </c>
       <c r="AF212" s="2"/>
       <c r="AG212" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>406</v>
+      <c r="B213" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D213" s="2">
         <v>165.451954</v>
@@ -23351,21 +23416,21 @@
         <v>0</v>
       </c>
       <c r="AF213" s="2" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="AG213" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>408</v>
+      <c r="B214" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="D214" s="2">
         <v>122.883933</v>
@@ -23449,21 +23514,21 @@
         <v>0</v>
       </c>
       <c r="AF214" s="2" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="AG214" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>410</v>
+      <c r="B215" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="D215" s="2">
         <v>26.274665599999999</v>
@@ -23547,21 +23612,21 @@
         <v>0</v>
       </c>
       <c r="AF215" s="2" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="AG215" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B216" s="6" t="s">
-        <v>412</v>
+      <c r="B216" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="D216" s="2">
         <v>-59.35239</v>
@@ -23645,21 +23710,21 @@
         <v>0</v>
       </c>
       <c r="AF216" s="2" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="AG216" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>414</v>
+      <c r="B217" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="D217" s="2">
         <v>-2.7617294000000001</v>
@@ -23743,21 +23808,21 @@
         <v>0</v>
       </c>
       <c r="AF217" s="2" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="AG217" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B218" s="6" t="s">
-        <v>416</v>
+      <c r="B218" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="D218" s="2">
         <v>-144.90494000000001</v>
@@ -23841,21 +23906,21 @@
         <v>0</v>
       </c>
       <c r="AF218" s="2" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="AG218" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B219" s="6" t="s">
-        <v>418</v>
+      <c r="B219" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="D219" s="2">
         <v>-53.055</v>
@@ -23939,21 +24004,21 @@
         <v>0</v>
       </c>
       <c r="AF219" s="2" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="AG219" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B220" s="6" t="s">
-        <v>420</v>
+      <c r="B220" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="D220" s="2">
         <v>16.404129000000001</v>
@@ -24037,21 +24102,21 @@
         <v>0</v>
       </c>
       <c r="AF220" s="2" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="AG220" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B221" s="6" t="s">
-        <v>759</v>
+      <c r="B221" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="D221" s="2">
         <v>20.468268299999998</v>
@@ -24135,21 +24200,21 @@
         <v>0</v>
       </c>
       <c r="AF221" s="2" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="AG221" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>423</v>
+      <c r="B222" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="D222" s="2">
         <v>18.644925099999998</v>
@@ -24233,21 +24298,21 @@
         <v>0</v>
       </c>
       <c r="AF222" s="2" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="AG222" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B223" s="6" t="s">
-        <v>425</v>
+      <c r="B223" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="D223" s="2">
         <v>19.2388394</v>
@@ -24331,21 +24396,21 @@
         <v>0</v>
       </c>
       <c r="AF223" s="2" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="AG223" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B224" s="6" t="s">
-        <v>760</v>
+      <c r="B224" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="D224" s="2">
         <v>15.312401599999999</v>
@@ -24429,21 +24494,21 @@
         <v>0</v>
       </c>
       <c r="AF224" s="2" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="AG224" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B225" s="6" t="s">
-        <v>428</v>
+      <c r="B225" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="D225" s="2">
         <v>-71.382561999999993</v>
@@ -24527,21 +24592,21 @@
         <v>0</v>
       </c>
       <c r="AF225" s="2" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="AG225" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>430</v>
+      <c r="B226" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="D226" s="2">
         <v>8.2086747100000004</v>
@@ -24625,24 +24690,24 @@
         <v>0</v>
       </c>
       <c r="AF226" s="2" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="AG226" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>432</v>
+      <c r="B227" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="D227" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="E227" s="2">
         <v>62.113100000000003</v>
@@ -24723,21 +24788,21 @@
         <v>0</v>
       </c>
       <c r="AF227" s="2" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="AG227" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B228" s="6" t="s">
-        <v>435</v>
+      <c r="B228" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="D228" s="2">
         <v>80.701082400000004</v>
@@ -24821,21 +24886,21 @@
         <v>0</v>
       </c>
       <c r="AF228" s="2" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="AG228" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>437</v>
+      <c r="B229" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="D229" s="2">
         <v>-78.752019000000004</v>
@@ -24919,21 +24984,21 @@
         <v>0</v>
       </c>
       <c r="AF229" s="2" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="AG229" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>439</v>
+      <c r="B230" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D230" s="2">
         <v>10.3413792</v>
@@ -25017,21 +25082,21 @@
         <v>0</v>
       </c>
       <c r="AF230" s="2" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="AG230" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>441</v>
+      <c r="B231" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="D231" s="2">
         <v>19.953287700000001</v>
@@ -25115,21 +25180,21 @@
         <v>0</v>
       </c>
       <c r="AF231" s="2" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="AG231" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B232" s="6" t="s">
-        <v>443</v>
+      <c r="B232" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="D232" s="2">
         <v>-88.871645000000001</v>
@@ -25213,21 +25278,21 @@
         <v>0</v>
       </c>
       <c r="AF232" s="2" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="AG232" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>445</v>
+      <c r="B233" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="D233" s="2">
         <v>38.846170100000002</v>
@@ -25311,21 +25376,21 @@
         <v>0</v>
       </c>
       <c r="AF233" s="2" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="AG233" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.3">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B234" s="6" t="s">
-        <v>447</v>
+      <c r="B234" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="D234" s="2">
         <v>25.660799999999998</v>
@@ -25409,21 +25474,21 @@
         <v>0</v>
       </c>
       <c r="AF234" s="2" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="AG234" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B235" s="6" t="s">
-        <v>449</v>
+      <c r="B235" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D235" s="2">
         <v>39.600800999999997</v>
@@ -25507,21 +25572,21 @@
         <v>0</v>
       </c>
       <c r="AF235" s="2" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="AG235" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>451</v>
+      <c r="B236" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="D236" s="2">
         <v>-36.433183999999997</v>
@@ -25605,21 +25670,21 @@
         <v>0</v>
       </c>
       <c r="AF236" s="2" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="AG236" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>453</v>
+      <c r="B237" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="D237" s="2">
         <v>44.085700000000003</v>
@@ -25703,21 +25768,21 @@
         <v>0</v>
       </c>
       <c r="AF237" s="2" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="AG237" s="2" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>761</v>
+      <c r="B238" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="D238" s="2">
         <v>25.0839009</v>
@@ -25801,21 +25866,21 @@
         <v>0</v>
       </c>
       <c r="AF238" s="2" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="AG238" s="2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>456</v>
+      <c r="B239" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="D239" s="2">
         <v>30.247900000000001</v>
@@ -25899,21 +25964,21 @@
         <v>0</v>
       </c>
       <c r="AF239" s="2" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="AG239" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B240" s="6" t="s">
-        <v>458</v>
+      <c r="B240" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="D240" s="2">
         <v>-77.314825999999996</v>
@@ -25997,21 +26062,21 @@
         <v>0</v>
       </c>
       <c r="AF240" s="2" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="AG240" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>460</v>
+      <c r="B241" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="D241" s="2">
         <v>138.03089600000001</v>
@@ -26095,668 +26160,668 @@
         <v>0</v>
       </c>
       <c r="AF241" s="2" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="AG241" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S242" s="3"/>
       <c r="X242" s="2"/>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S243" s="2"/>
       <c r="X243" s="2"/>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S244" s="2"/>
       <c r="X244" s="2"/>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S245" s="2"/>
       <c r="X245" s="2"/>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S246" s="2"/>
       <c r="X246" s="2"/>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S247" s="2"/>
       <c r="X247" s="2"/>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S248" s="2"/>
       <c r="X248" s="2"/>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S249" s="2"/>
       <c r="X249" s="2"/>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S250" s="2"/>
       <c r="X250" s="2"/>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S251" s="2"/>
       <c r="X251" s="2"/>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S252" s="2"/>
       <c r="X252" s="2"/>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S253" s="2"/>
       <c r="X253" s="2"/>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S254" s="2"/>
       <c r="X254" s="2"/>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S255" s="2"/>
       <c r="X255" s="2"/>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.25">
       <c r="S256" s="2"/>
       <c r="X256" s="2"/>
     </row>
-    <row r="257" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="257" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S257" s="2"/>
       <c r="X257" s="2"/>
     </row>
-    <row r="258" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="258" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S258" s="2"/>
       <c r="X258" s="2"/>
     </row>
-    <row r="259" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="259" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S259" s="2"/>
       <c r="X259" s="2"/>
     </row>
-    <row r="260" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="260" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S260" s="2"/>
       <c r="X260" s="2"/>
     </row>
-    <row r="261" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="261" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S261" s="2"/>
       <c r="X261" s="2"/>
     </row>
-    <row r="262" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="262" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S262" s="2"/>
       <c r="X262" s="2"/>
     </row>
-    <row r="263" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="263" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S263" s="2"/>
       <c r="X263" s="2"/>
     </row>
-    <row r="264" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="264" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S264" s="2"/>
       <c r="X264" s="2"/>
     </row>
-    <row r="265" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="265" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S265" s="2"/>
       <c r="X265" s="2"/>
     </row>
-    <row r="266" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="266" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S266" s="2"/>
       <c r="X266" s="2"/>
     </row>
-    <row r="267" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="267" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S267" s="2"/>
       <c r="X267" s="2"/>
     </row>
-    <row r="268" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="268" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S268" s="2"/>
       <c r="X268" s="2"/>
     </row>
-    <row r="269" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="269" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S269" s="2"/>
       <c r="X269" s="2"/>
     </row>
-    <row r="270" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="270" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S270" s="2"/>
       <c r="X270" s="2"/>
     </row>
-    <row r="271" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="271" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S271" s="2"/>
       <c r="X271" s="2"/>
     </row>
-    <row r="272" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="272" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S272" s="2"/>
       <c r="X272" s="2"/>
     </row>
-    <row r="273" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="273" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S273" s="2"/>
       <c r="X273" s="2"/>
     </row>
-    <row r="274" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="274" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S274" s="2"/>
       <c r="X274" s="2"/>
     </row>
-    <row r="275" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="275" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S275" s="2"/>
       <c r="X275" s="2"/>
     </row>
-    <row r="276" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="276" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S276" s="2"/>
       <c r="X276" s="2"/>
     </row>
-    <row r="277" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="277" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S277" s="2"/>
       <c r="X277" s="2"/>
     </row>
-    <row r="278" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="278" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S278" s="2"/>
       <c r="X278" s="2"/>
     </row>
-    <row r="279" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="279" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S279" s="2"/>
       <c r="X279" s="2"/>
     </row>
-    <row r="280" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="280" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S280" s="2"/>
     </row>
-    <row r="281" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="281" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S281" s="2"/>
     </row>
-    <row r="282" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="282" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S282" s="2"/>
     </row>
-    <row r="283" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="283" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S283" s="2"/>
     </row>
-    <row r="284" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="284" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S284" s="2"/>
       <c r="X284" s="2"/>
     </row>
-    <row r="285" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="285" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S285" s="2"/>
     </row>
-    <row r="286" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="286" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S286" s="2"/>
     </row>
-    <row r="287" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="287" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S287" s="2"/>
     </row>
-    <row r="288" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="288" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S288" s="2"/>
     </row>
-    <row r="289" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="289" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S289" s="2"/>
       <c r="X289" s="2"/>
     </row>
-    <row r="290" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="290" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S290" s="2"/>
     </row>
-    <row r="291" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="291" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S291" s="2"/>
       <c r="X291" s="2"/>
     </row>
-    <row r="292" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="292" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S292" s="2"/>
       <c r="X292" s="2"/>
     </row>
-    <row r="293" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="293" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S293" s="2"/>
       <c r="X293" s="2"/>
     </row>
-    <row r="294" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="294" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S294" s="2"/>
       <c r="X294" s="2"/>
     </row>
-    <row r="295" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="295" spans="19:24" x14ac:dyDescent="0.25">
       <c r="X295" s="2"/>
     </row>
-    <row r="296" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="296" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S296" s="2"/>
       <c r="X296" s="2"/>
     </row>
-    <row r="297" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="297" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S297" s="2"/>
     </row>
-    <row r="298" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="298" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S298" s="2"/>
       <c r="X298" s="2"/>
     </row>
-    <row r="299" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="299" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S299" s="2"/>
       <c r="X299" s="2"/>
     </row>
-    <row r="300" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="300" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S300" s="2"/>
       <c r="X300" s="2"/>
     </row>
-    <row r="301" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="301" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S301" s="2"/>
       <c r="X301" s="2"/>
     </row>
-    <row r="302" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="302" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S302" s="2"/>
       <c r="X302" s="2"/>
     </row>
-    <row r="303" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="303" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S303" s="2"/>
       <c r="X303" s="2"/>
     </row>
-    <row r="304" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="304" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S304" s="2"/>
       <c r="X304" s="2"/>
     </row>
-    <row r="305" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="305" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S305" s="2"/>
       <c r="X305" s="2"/>
     </row>
-    <row r="306" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="306" spans="19:24" x14ac:dyDescent="0.25">
       <c r="X306" s="2"/>
     </row>
-    <row r="307" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="307" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S307" s="2"/>
       <c r="X307" s="2"/>
     </row>
-    <row r="308" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="308" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S308" s="2"/>
       <c r="X308" s="2"/>
     </row>
-    <row r="309" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="309" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S309" s="2"/>
       <c r="X309" s="2"/>
     </row>
-    <row r="310" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="310" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S310" s="2"/>
       <c r="X310" s="2"/>
     </row>
-    <row r="311" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="311" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S311" s="2"/>
       <c r="X311" s="2"/>
     </row>
-    <row r="312" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="312" spans="19:24" x14ac:dyDescent="0.25">
       <c r="X312" s="2"/>
     </row>
-    <row r="313" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="313" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S313" s="2"/>
       <c r="X313" s="2"/>
     </row>
-    <row r="314" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="314" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S314" s="2"/>
       <c r="X314" s="2"/>
     </row>
-    <row r="315" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="315" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S315" s="2"/>
       <c r="X315" s="2"/>
     </row>
-    <row r="316" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="316" spans="19:24" x14ac:dyDescent="0.25">
       <c r="X316" s="2"/>
     </row>
-    <row r="317" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="317" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S317" s="2"/>
       <c r="X317" s="2"/>
     </row>
-    <row r="318" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="318" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S318" s="2"/>
       <c r="X318" s="2"/>
     </row>
-    <row r="319" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="319" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S319" s="2"/>
       <c r="X319" s="2"/>
     </row>
-    <row r="320" spans="19:24" x14ac:dyDescent="0.3">
+    <row r="320" spans="19:24" x14ac:dyDescent="0.25">
       <c r="S320" s="2"/>
       <c r="X320" s="2"/>
     </row>
-    <row r="321" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="321" spans="12:24" x14ac:dyDescent="0.25">
       <c r="X321" s="2"/>
     </row>
-    <row r="322" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="322" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L322" s="2"/>
       <c r="S322" s="2"/>
       <c r="X322" s="2"/>
     </row>
-    <row r="323" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="323" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L323" s="2"/>
       <c r="S323" s="2"/>
       <c r="X323" s="2"/>
     </row>
-    <row r="324" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="324" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L324" s="2"/>
       <c r="S324" s="2"/>
       <c r="X324" s="2"/>
     </row>
-    <row r="325" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="325" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L325" s="2"/>
       <c r="S325" s="2"/>
       <c r="X325" s="2"/>
     </row>
-    <row r="326" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="326" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L326" s="2"/>
       <c r="S326" s="2"/>
       <c r="X326" s="2"/>
     </row>
-    <row r="327" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="327" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S327" s="2"/>
       <c r="X327" s="2"/>
     </row>
-    <row r="328" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="328" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S328" s="2"/>
       <c r="X328" s="2"/>
     </row>
-    <row r="329" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="329" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S329" s="2"/>
       <c r="X329" s="2"/>
     </row>
-    <row r="330" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="330" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S330" s="2"/>
       <c r="X330" s="2"/>
     </row>
-    <row r="331" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="331" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S331" s="2"/>
       <c r="X331" s="2"/>
     </row>
-    <row r="332" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="332" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S332" s="2"/>
       <c r="X332" s="2"/>
     </row>
-    <row r="333" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="333" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S333" s="2"/>
       <c r="X333" s="2"/>
     </row>
-    <row r="334" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="334" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S334" s="2"/>
       <c r="X334" s="2"/>
     </row>
-    <row r="335" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="335" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S335" s="2"/>
       <c r="X335" s="2"/>
     </row>
-    <row r="336" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="336" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S336" s="2"/>
       <c r="X336" s="2"/>
     </row>
-    <row r="337" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="337" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S337" s="2"/>
       <c r="X337" s="2"/>
     </row>
-    <row r="338" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="338" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S338" s="2"/>
       <c r="X338" s="2"/>
     </row>
-    <row r="339" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="339" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S339" s="2"/>
       <c r="X339" s="2"/>
     </row>
-    <row r="340" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="340" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S340" s="2"/>
       <c r="X340" s="2"/>
     </row>
-    <row r="341" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="341" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L341" s="2"/>
       <c r="S341" s="2"/>
       <c r="X341" s="2"/>
     </row>
-    <row r="342" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="342" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L342" s="2"/>
       <c r="S342" s="2"/>
       <c r="X342" s="2"/>
     </row>
-    <row r="343" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="343" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L343" s="2"/>
       <c r="S343" s="2"/>
       <c r="X343" s="2"/>
     </row>
-    <row r="344" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="344" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L344" s="2"/>
       <c r="S344" s="2"/>
       <c r="X344" s="2"/>
     </row>
-    <row r="345" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="345" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L345" s="2"/>
       <c r="S345" s="2"/>
       <c r="X345" s="2"/>
     </row>
-    <row r="346" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="346" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S346" s="2"/>
     </row>
-    <row r="347" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="347" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S347" s="2"/>
       <c r="X347" s="2"/>
     </row>
-    <row r="348" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="348" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S348" s="2"/>
     </row>
-    <row r="349" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="349" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S349" s="2"/>
       <c r="X349" s="2"/>
     </row>
-    <row r="350" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="350" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S350" s="2"/>
       <c r="X350" s="2"/>
     </row>
-    <row r="351" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="351" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S351" s="2"/>
     </row>
-    <row r="352" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="352" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S352" s="2"/>
     </row>
-    <row r="353" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="353" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S353" s="2"/>
     </row>
-    <row r="354" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="354" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S354" s="2"/>
       <c r="X354" s="2"/>
     </row>
-    <row r="355" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="355" spans="12:24" x14ac:dyDescent="0.25">
       <c r="X355" s="2"/>
     </row>
-    <row r="356" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="356" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S356" s="2"/>
       <c r="X356" s="2"/>
     </row>
-    <row r="357" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="357" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S357" s="2"/>
       <c r="X357" s="2"/>
     </row>
-    <row r="358" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="358" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S358" s="2"/>
       <c r="X358" s="2"/>
     </row>
-    <row r="359" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="359" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S359" s="2"/>
       <c r="X359" s="2"/>
     </row>
-    <row r="360" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="360" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L360" s="2"/>
       <c r="S360" s="2"/>
       <c r="X360" s="2"/>
     </row>
-    <row r="361" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="361" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L361" s="2"/>
       <c r="S361" s="2"/>
       <c r="X361" s="2"/>
     </row>
-    <row r="362" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="362" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L362" s="2"/>
       <c r="S362" s="2"/>
       <c r="X362" s="2"/>
     </row>
-    <row r="363" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="363" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L363" s="2"/>
       <c r="S363" s="2"/>
       <c r="X363" s="2"/>
     </row>
-    <row r="364" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="364" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L364" s="2"/>
       <c r="S364" s="2"/>
       <c r="X364" s="2"/>
     </row>
-    <row r="365" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="365" spans="12:24" x14ac:dyDescent="0.25">
       <c r="S365" s="2"/>
       <c r="X365" s="2"/>
     </row>
-    <row r="366" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="366" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L366" s="2"/>
       <c r="S366" s="2"/>
     </row>
-    <row r="367" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="367" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L367" s="2"/>
       <c r="S367" s="2"/>
     </row>
-    <row r="368" spans="12:24" x14ac:dyDescent="0.3">
+    <row r="368" spans="12:24" x14ac:dyDescent="0.25">
       <c r="L368" s="2"/>
       <c r="S368" s="2"/>
     </row>
-    <row r="369" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="369" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L369" s="2"/>
       <c r="S369" s="2"/>
     </row>
-    <row r="370" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="370" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L370" s="2"/>
       <c r="S370" s="2"/>
     </row>
-    <row r="371" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="371" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L371" s="2"/>
       <c r="S371" s="2"/>
     </row>
-    <row r="372" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="372" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L372" s="2"/>
       <c r="S372" s="2"/>
     </row>
-    <row r="373" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="373" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L373" s="2"/>
       <c r="S373" s="2"/>
     </row>
-    <row r="374" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="374" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L374" s="2"/>
       <c r="S374" s="2"/>
     </row>
-    <row r="375" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="375" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L375" s="2"/>
       <c r="S375" s="2"/>
     </row>
-    <row r="376" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="376" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L376" s="2"/>
       <c r="S376" s="2"/>
     </row>
-    <row r="377" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="377" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L377" s="2"/>
       <c r="S377" s="2"/>
     </row>
-    <row r="378" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="378" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L378" s="2"/>
       <c r="S378" s="2"/>
     </row>
-    <row r="379" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="379" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L379" s="2"/>
       <c r="S379" s="2"/>
     </row>
-    <row r="380" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="380" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L380" s="2"/>
       <c r="S380" s="2"/>
     </row>
-    <row r="381" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="381" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L381" s="2"/>
       <c r="S381" s="2"/>
     </row>
-    <row r="382" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="382" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L382" s="2"/>
       <c r="S382" s="2"/>
     </row>
-    <row r="383" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="383" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L383" s="2"/>
       <c r="S383" s="2"/>
     </row>
-    <row r="384" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="384" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="385" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S385" s="2"/>
     </row>
-    <row r="386" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="386" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S386" s="2"/>
     </row>
-    <row r="388" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="388" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S388" s="2"/>
     </row>
-    <row r="389" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="389" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S389" s="2"/>
     </row>
-    <row r="390" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="390" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S390" s="2"/>
     </row>
-    <row r="391" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="391" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S391" s="2"/>
     </row>
-    <row r="392" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="392" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S392" s="2"/>
     </row>
-    <row r="393" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="393" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S393" s="2"/>
     </row>
-    <row r="394" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="394" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S394" s="2"/>
     </row>
-    <row r="395" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="395" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S395" s="2"/>
     </row>
-    <row r="396" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="396" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S396" s="2"/>
     </row>
-    <row r="397" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="397" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S397" s="2"/>
     </row>
-    <row r="398" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="398" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S398" s="2"/>
     </row>
-    <row r="399" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="399" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S399" s="2"/>
     </row>
-    <row r="400" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="400" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S400" s="2"/>
     </row>
-    <row r="401" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="401" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S401" s="2"/>
     </row>
-    <row r="402" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="402" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S402" s="2"/>
     </row>
-    <row r="404" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="404" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S404" s="2"/>
     </row>
-    <row r="406" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="406" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S406" s="2"/>
     </row>
-    <row r="407" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="407" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S407" s="2"/>
     </row>
-    <row r="409" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="409" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S409" s="2"/>
     </row>
-    <row r="410" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="410" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S410" s="2"/>
     </row>
-    <row r="411" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="411" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S411" s="2"/>
     </row>
-    <row r="412" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="412" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S412" s="2"/>
     </row>
-    <row r="413" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="413" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S413" s="2"/>
     </row>
-    <row r="414" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="414" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S414" s="2"/>
     </row>
-    <row r="416" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="416" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S416" s="2"/>
     </row>
-    <row r="418" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="418" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S418" s="2"/>
     </row>
-    <row r="419" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="419" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S419" s="2"/>
     </row>
-    <row r="422" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="422" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S422" s="2"/>
     </row>
-    <row r="423" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="423" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S423" s="2"/>
     </row>
   </sheetData>

--- a/countries.xlsx
+++ b/countries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\source\repos\sat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DC8C49-9ACD-44C7-9241-2B2FB8868D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B573C-2FB7-4D5F-9CF7-8F1A85E695B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12165" yWindow="2760" windowWidth="26925" windowHeight="15435" xr2:uid="{BC4BFFBD-6ECB-3446-AE5A-428986AB9399}"/>
+    <workbookView xWindow="6540" yWindow="2496" windowWidth="17232" windowHeight="12204" xr2:uid="{BC4BFFBD-6ECB-3446-AE5A-428986AB9399}"/>
   </bookViews>
   <sheets>
     <sheet name="!!!!!" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="765">
   <si>
     <t>Континент</t>
   </si>
@@ -2325,6 +2325,9 @@
   </si>
   <si>
     <t>jp</t>
+  </si>
+  <si>
+    <t>JPN</t>
   </si>
 </sst>
 </file>
@@ -2697,22 +2700,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFC85D5-0E4A-114F-B58B-CB4CF6D9DE75}">
   <dimension ref="A1:AG423"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI9" sqref="AI9"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>500</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>6</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -3638,7 +3641,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -4030,7 +4033,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -4912,7 +4915,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -5108,7 +5111,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -5206,7 +5209,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5990,7 +5993,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -6382,7 +6385,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>24</v>
       </c>
@@ -6676,7 +6679,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
@@ -6872,7 +6875,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>36</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -7264,7 +7267,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
@@ -7460,7 +7463,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -7558,7 +7561,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -7656,7 +7659,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -7754,7 +7757,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -7852,7 +7855,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -7950,7 +7953,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -8146,7 +8149,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
@@ -8342,7 +8345,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -8440,7 +8443,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -8538,7 +8541,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
@@ -8636,7 +8639,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -8734,7 +8737,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
@@ -8832,7 +8835,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -9028,7 +9031,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>19</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
@@ -9224,7 +9227,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>19</v>
       </c>
@@ -9322,7 +9325,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
@@ -9420,7 +9423,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>14</v>
       </c>
@@ -9518,7 +9521,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
@@ -9616,7 +9619,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
@@ -9714,7 +9717,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>14</v>
       </c>
@@ -9812,7 +9815,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>14</v>
       </c>
@@ -9910,7 +9913,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -10008,7 +10011,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -10106,7 +10109,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -10204,7 +10207,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -10302,7 +10305,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
@@ -10400,7 +10403,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
@@ -10498,7 +10501,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>14</v>
       </c>
@@ -10596,7 +10599,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>14</v>
       </c>
@@ -10694,7 +10697,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>19</v>
       </c>
@@ -10792,7 +10795,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>24</v>
       </c>
@@ -10890,7 +10893,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>14</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>19</v>
       </c>
@@ -11086,7 +11089,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -11184,7 +11187,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>14</v>
       </c>
@@ -11282,7 +11285,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -11380,7 +11383,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -11478,7 +11481,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>36</v>
       </c>
@@ -11576,7 +11579,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -11674,7 +11677,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>14</v>
       </c>
@@ -11772,7 +11775,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>24</v>
       </c>
@@ -11870,7 +11873,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>19</v>
       </c>
@@ -11968,7 +11971,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>24</v>
       </c>
@@ -12066,7 +12069,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
@@ -12164,7 +12167,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>24</v>
       </c>
@@ -12262,7 +12265,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>14</v>
       </c>
@@ -12360,7 +12363,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -12458,7 +12461,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>19</v>
       </c>
@@ -12556,7 +12559,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>19</v>
       </c>
@@ -12654,7 +12657,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>14</v>
       </c>
@@ -12752,7 +12755,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>19</v>
       </c>
@@ -12850,7 +12853,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -12948,7 +12951,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -13046,7 +13049,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -13144,7 +13147,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>19</v>
       </c>
@@ -13242,7 +13245,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>19</v>
       </c>
@@ -13340,7 +13343,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>19</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>19</v>
       </c>
@@ -13536,7 +13539,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>14</v>
       </c>
@@ -13634,7 +13637,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>19</v>
       </c>
@@ -13732,7 +13735,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>14</v>
       </c>
@@ -13830,7 +13833,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>19</v>
       </c>
@@ -13928,7 +13931,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>14</v>
       </c>
@@ -14026,7 +14029,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -14124,7 +14127,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>19</v>
       </c>
@@ -14222,7 +14225,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
@@ -14320,7 +14323,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>24</v>
       </c>
@@ -14418,7 +14421,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>19</v>
       </c>
@@ -14516,7 +14519,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>11</v>
       </c>
@@ -14614,7 +14617,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>11</v>
       </c>
@@ -14712,7 +14715,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
@@ -14810,7 +14813,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>24</v>
       </c>
@@ -14908,7 +14911,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>14</v>
       </c>
@@ -15006,7 +15009,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>19</v>
       </c>
@@ -15104,7 +15107,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>14</v>
       </c>
@@ -15202,7 +15205,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -15300,7 +15303,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>19</v>
       </c>
@@ -15398,7 +15401,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -15496,7 +15499,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>24</v>
       </c>
@@ -15594,7 +15597,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -15692,7 +15695,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -15790,7 +15793,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -15888,7 +15891,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -15986,7 +15989,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>14</v>
       </c>
@@ -16084,7 +16087,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>14</v>
       </c>
@@ -16182,7 +16185,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>24</v>
       </c>
@@ -16280,7 +16283,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
@@ -16378,7 +16381,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
@@ -16476,7 +16479,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -16574,7 +16577,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>8</v>
       </c>
@@ -16672,7 +16675,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -16770,7 +16773,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>24</v>
       </c>
@@ -16868,7 +16871,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>14</v>
       </c>
@@ -16966,7 +16969,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -17064,7 +17067,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>14</v>
       </c>
@@ -17162,7 +17165,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>24</v>
       </c>
@@ -17260,7 +17263,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>11</v>
       </c>
@@ -17358,7 +17361,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>8</v>
       </c>
@@ -17456,7 +17459,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>36</v>
       </c>
@@ -17554,7 +17557,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>36</v>
       </c>
@@ -17652,7 +17655,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -17750,7 +17753,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -17848,7 +17851,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>24</v>
       </c>
@@ -17946,7 +17949,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>11</v>
       </c>
@@ -18044,7 +18047,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>19</v>
       </c>
@@ -18142,7 +18145,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>14</v>
       </c>
@@ -18240,7 +18243,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -18338,7 +18341,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
@@ -18436,7 +18439,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>19</v>
       </c>
@@ -18534,7 +18537,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>11</v>
       </c>
@@ -18632,7 +18635,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -18730,7 +18733,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>11</v>
       </c>
@@ -18828,7 +18831,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>8</v>
       </c>
@@ -18926,7 +18929,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>11</v>
       </c>
@@ -19024,7 +19027,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>19</v>
       </c>
@@ -19122,7 +19125,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -19220,7 +19223,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>19</v>
       </c>
@@ -19314,7 +19317,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>19</v>
       </c>
@@ -19412,7 +19415,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>19</v>
       </c>
@@ -19510,7 +19513,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>8</v>
       </c>
@@ -19608,7 +19611,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>8</v>
       </c>
@@ -19702,7 +19705,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>24</v>
       </c>
@@ -19800,7 +19803,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>24</v>
       </c>
@@ -19898,7 +19901,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>24</v>
       </c>
@@ -19996,7 +19999,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>19</v>
       </c>
@@ -20094,7 +20097,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>24</v>
       </c>
@@ -20192,7 +20195,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>24</v>
       </c>
@@ -20290,7 +20293,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>24</v>
       </c>
@@ -20388,7 +20391,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>11</v>
       </c>
@@ -20486,7 +20489,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>14</v>
       </c>
@@ -20584,7 +20587,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>14</v>
       </c>
@@ -20682,7 +20685,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>11</v>
       </c>
@@ -20780,7 +20783,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>11</v>
       </c>
@@ -20878,7 +20881,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>11</v>
       </c>
@@ -20976,7 +20979,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>24</v>
       </c>
@@ -21074,7 +21077,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>8</v>
       </c>
@@ -21172,7 +21175,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>19</v>
       </c>
@@ -21270,7 +21273,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>19</v>
       </c>
@@ -21368,7 +21371,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>36</v>
       </c>
@@ -21466,7 +21469,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>19</v>
       </c>
@@ -21564,7 +21567,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>14</v>
       </c>
@@ -21662,7 +21665,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>14</v>
       </c>
@@ -21760,7 +21763,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>14</v>
       </c>
@@ -21858,7 +21861,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>19</v>
       </c>
@@ -21956,7 +21959,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>14</v>
       </c>
@@ -22054,7 +22057,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>19</v>
       </c>
@@ -22152,7 +22155,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
@@ -22250,7 +22253,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>24</v>
       </c>
@@ -22348,7 +22351,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -22446,7 +22449,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>14</v>
       </c>
@@ -22544,7 +22547,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>14</v>
       </c>
@@ -22642,7 +22645,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>19</v>
       </c>
@@ -22740,7 +22743,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>14</v>
       </c>
@@ -22838,7 +22841,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>11</v>
       </c>
@@ -22936,7 +22939,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>8</v>
       </c>
@@ -23034,7 +23037,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>36</v>
       </c>
@@ -23132,7 +23135,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>11</v>
       </c>
@@ -23230,7 +23233,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>8</v>
       </c>
@@ -23324,7 +23327,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>8</v>
       </c>
@@ -23422,7 +23425,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>14</v>
       </c>
@@ -23520,7 +23523,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
@@ -23618,7 +23621,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>36</v>
       </c>
@@ -23716,7 +23719,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>11</v>
       </c>
@@ -23814,7 +23817,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>8</v>
       </c>
@@ -23912,7 +23915,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>36</v>
       </c>
@@ -24010,7 +24013,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>11</v>
       </c>
@@ -24108,7 +24111,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>19</v>
       </c>
@@ -24206,7 +24209,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>19</v>
       </c>
@@ -24304,7 +24307,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>11</v>
       </c>
@@ -24402,7 +24405,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
@@ -24500,7 +24503,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>36</v>
       </c>
@@ -24598,7 +24601,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>11</v>
       </c>
@@ -24696,7 +24699,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>11</v>
       </c>
@@ -24794,7 +24797,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>14</v>
       </c>
@@ -24892,7 +24895,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>36</v>
       </c>
@@ -24990,7 +24993,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>19</v>
       </c>
@@ -25088,7 +25091,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>11</v>
       </c>
@@ -25186,7 +25189,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>24</v>
       </c>
@@ -25284,7 +25287,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>19</v>
       </c>
@@ -25382,7 +25385,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>11</v>
       </c>
@@ -25480,7 +25483,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>19</v>
       </c>
@@ -25578,7 +25581,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>24</v>
       </c>
@@ -25676,7 +25679,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>11</v>
       </c>
@@ -25774,7 +25777,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>19</v>
       </c>
@@ -25872,7 +25875,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>19</v>
       </c>
@@ -25970,7 +25973,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>24</v>
       </c>
@@ -26068,7 +26071,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>14</v>
       </c>
@@ -26076,7 +26079,7 @@
         <v>484</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>485</v>
+        <v>764</v>
       </c>
       <c r="D241" s="2">
         <v>138.03089600000001</v>
@@ -26166,662 +26169,662 @@
         <v>763</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S242" s="3"/>
       <c r="X242" s="2"/>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S243" s="2"/>
       <c r="X243" s="2"/>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S244" s="2"/>
       <c r="X244" s="2"/>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S245" s="2"/>
       <c r="X245" s="2"/>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S246" s="2"/>
       <c r="X246" s="2"/>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S247" s="2"/>
       <c r="X247" s="2"/>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S248" s="2"/>
       <c r="X248" s="2"/>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S249" s="2"/>
       <c r="X249" s="2"/>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S250" s="2"/>
       <c r="X250" s="2"/>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S251" s="2"/>
       <c r="X251" s="2"/>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S252" s="2"/>
       <c r="X252" s="2"/>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S253" s="2"/>
       <c r="X253" s="2"/>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S254" s="2"/>
       <c r="X254" s="2"/>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S255" s="2"/>
       <c r="X255" s="2"/>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S256" s="2"/>
       <c r="X256" s="2"/>
     </row>
-    <row r="257" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="257" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S257" s="2"/>
       <c r="X257" s="2"/>
     </row>
-    <row r="258" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S258" s="2"/>
       <c r="X258" s="2"/>
     </row>
-    <row r="259" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S259" s="2"/>
       <c r="X259" s="2"/>
     </row>
-    <row r="260" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="260" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S260" s="2"/>
       <c r="X260" s="2"/>
     </row>
-    <row r="261" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="261" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S261" s="2"/>
       <c r="X261" s="2"/>
     </row>
-    <row r="262" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="262" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S262" s="2"/>
       <c r="X262" s="2"/>
     </row>
-    <row r="263" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="263" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S263" s="2"/>
       <c r="X263" s="2"/>
     </row>
-    <row r="264" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="264" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S264" s="2"/>
       <c r="X264" s="2"/>
     </row>
-    <row r="265" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="265" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S265" s="2"/>
       <c r="X265" s="2"/>
     </row>
-    <row r="266" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="266" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S266" s="2"/>
       <c r="X266" s="2"/>
     </row>
-    <row r="267" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="267" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S267" s="2"/>
       <c r="X267" s="2"/>
     </row>
-    <row r="268" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="268" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S268" s="2"/>
       <c r="X268" s="2"/>
     </row>
-    <row r="269" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="269" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S269" s="2"/>
       <c r="X269" s="2"/>
     </row>
-    <row r="270" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="270" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S270" s="2"/>
       <c r="X270" s="2"/>
     </row>
-    <row r="271" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="271" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S271" s="2"/>
       <c r="X271" s="2"/>
     </row>
-    <row r="272" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="272" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S272" s="2"/>
       <c r="X272" s="2"/>
     </row>
-    <row r="273" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="273" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S273" s="2"/>
       <c r="X273" s="2"/>
     </row>
-    <row r="274" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="274" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S274" s="2"/>
       <c r="X274" s="2"/>
     </row>
-    <row r="275" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="275" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S275" s="2"/>
       <c r="X275" s="2"/>
     </row>
-    <row r="276" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="276" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S276" s="2"/>
       <c r="X276" s="2"/>
     </row>
-    <row r="277" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="277" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S277" s="2"/>
       <c r="X277" s="2"/>
     </row>
-    <row r="278" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="278" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S278" s="2"/>
       <c r="X278" s="2"/>
     </row>
-    <row r="279" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="279" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S279" s="2"/>
       <c r="X279" s="2"/>
     </row>
-    <row r="280" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="280" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S280" s="2"/>
     </row>
-    <row r="281" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="281" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S281" s="2"/>
     </row>
-    <row r="282" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="282" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S282" s="2"/>
     </row>
-    <row r="283" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="283" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S283" s="2"/>
     </row>
-    <row r="284" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="284" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S284" s="2"/>
       <c r="X284" s="2"/>
     </row>
-    <row r="285" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="285" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S285" s="2"/>
     </row>
-    <row r="286" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="286" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S286" s="2"/>
     </row>
-    <row r="287" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="287" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S287" s="2"/>
     </row>
-    <row r="288" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="288" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S288" s="2"/>
     </row>
-    <row r="289" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="289" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S289" s="2"/>
       <c r="X289" s="2"/>
     </row>
-    <row r="290" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="290" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S290" s="2"/>
     </row>
-    <row r="291" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="291" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S291" s="2"/>
       <c r="X291" s="2"/>
     </row>
-    <row r="292" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="292" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S292" s="2"/>
       <c r="X292" s="2"/>
     </row>
-    <row r="293" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="293" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S293" s="2"/>
       <c r="X293" s="2"/>
     </row>
-    <row r="294" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="294" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S294" s="2"/>
       <c r="X294" s="2"/>
     </row>
-    <row r="295" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="295" spans="19:24" x14ac:dyDescent="0.3">
       <c r="X295" s="2"/>
     </row>
-    <row r="296" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="296" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S296" s="2"/>
       <c r="X296" s="2"/>
     </row>
-    <row r="297" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="297" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S297" s="2"/>
     </row>
-    <row r="298" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="298" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S298" s="2"/>
       <c r="X298" s="2"/>
     </row>
-    <row r="299" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="299" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S299" s="2"/>
       <c r="X299" s="2"/>
     </row>
-    <row r="300" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="300" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S300" s="2"/>
       <c r="X300" s="2"/>
     </row>
-    <row r="301" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="301" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S301" s="2"/>
       <c r="X301" s="2"/>
     </row>
-    <row r="302" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="302" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S302" s="2"/>
       <c r="X302" s="2"/>
     </row>
-    <row r="303" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="303" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S303" s="2"/>
       <c r="X303" s="2"/>
     </row>
-    <row r="304" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="304" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S304" s="2"/>
       <c r="X304" s="2"/>
     </row>
-    <row r="305" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="305" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S305" s="2"/>
       <c r="X305" s="2"/>
     </row>
-    <row r="306" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="306" spans="19:24" x14ac:dyDescent="0.3">
       <c r="X306" s="2"/>
     </row>
-    <row r="307" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="307" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S307" s="2"/>
       <c r="X307" s="2"/>
     </row>
-    <row r="308" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="308" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S308" s="2"/>
       <c r="X308" s="2"/>
     </row>
-    <row r="309" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="309" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S309" s="2"/>
       <c r="X309" s="2"/>
     </row>
-    <row r="310" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="310" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S310" s="2"/>
       <c r="X310" s="2"/>
     </row>
-    <row r="311" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="311" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S311" s="2"/>
       <c r="X311" s="2"/>
     </row>
-    <row r="312" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="312" spans="19:24" x14ac:dyDescent="0.3">
       <c r="X312" s="2"/>
     </row>
-    <row r="313" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="313" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S313" s="2"/>
       <c r="X313" s="2"/>
     </row>
-    <row r="314" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="314" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S314" s="2"/>
       <c r="X314" s="2"/>
     </row>
-    <row r="315" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="315" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S315" s="2"/>
       <c r="X315" s="2"/>
     </row>
-    <row r="316" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="316" spans="19:24" x14ac:dyDescent="0.3">
       <c r="X316" s="2"/>
     </row>
-    <row r="317" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="317" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S317" s="2"/>
       <c r="X317" s="2"/>
     </row>
-    <row r="318" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="318" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S318" s="2"/>
       <c r="X318" s="2"/>
     </row>
-    <row r="319" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="319" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S319" s="2"/>
       <c r="X319" s="2"/>
     </row>
-    <row r="320" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="320" spans="19:24" x14ac:dyDescent="0.3">
       <c r="S320" s="2"/>
       <c r="X320" s="2"/>
     </row>
-    <row r="321" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="321" spans="12:24" x14ac:dyDescent="0.3">
       <c r="X321" s="2"/>
     </row>
-    <row r="322" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="322" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L322" s="2"/>
       <c r="S322" s="2"/>
       <c r="X322" s="2"/>
     </row>
-    <row r="323" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="323" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L323" s="2"/>
       <c r="S323" s="2"/>
       <c r="X323" s="2"/>
     </row>
-    <row r="324" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="324" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L324" s="2"/>
       <c r="S324" s="2"/>
       <c r="X324" s="2"/>
     </row>
-    <row r="325" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="325" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L325" s="2"/>
       <c r="S325" s="2"/>
       <c r="X325" s="2"/>
     </row>
-    <row r="326" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="326" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L326" s="2"/>
       <c r="S326" s="2"/>
       <c r="X326" s="2"/>
     </row>
-    <row r="327" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="327" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S327" s="2"/>
       <c r="X327" s="2"/>
     </row>
-    <row r="328" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="328" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S328" s="2"/>
       <c r="X328" s="2"/>
     </row>
-    <row r="329" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="329" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S329" s="2"/>
       <c r="X329" s="2"/>
     </row>
-    <row r="330" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="330" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S330" s="2"/>
       <c r="X330" s="2"/>
     </row>
-    <row r="331" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="331" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S331" s="2"/>
       <c r="X331" s="2"/>
     </row>
-    <row r="332" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="332" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S332" s="2"/>
       <c r="X332" s="2"/>
     </row>
-    <row r="333" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="333" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S333" s="2"/>
       <c r="X333" s="2"/>
     </row>
-    <row r="334" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="334" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S334" s="2"/>
       <c r="X334" s="2"/>
     </row>
-    <row r="335" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="335" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S335" s="2"/>
       <c r="X335" s="2"/>
     </row>
-    <row r="336" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="336" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S336" s="2"/>
       <c r="X336" s="2"/>
     </row>
-    <row r="337" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="337" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S337" s="2"/>
       <c r="X337" s="2"/>
     </row>
-    <row r="338" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="338" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S338" s="2"/>
       <c r="X338" s="2"/>
     </row>
-    <row r="339" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="339" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S339" s="2"/>
       <c r="X339" s="2"/>
     </row>
-    <row r="340" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="340" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S340" s="2"/>
       <c r="X340" s="2"/>
     </row>
-    <row r="341" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="341" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L341" s="2"/>
       <c r="S341" s="2"/>
       <c r="X341" s="2"/>
     </row>
-    <row r="342" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="342" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L342" s="2"/>
       <c r="S342" s="2"/>
       <c r="X342" s="2"/>
     </row>
-    <row r="343" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="343" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L343" s="2"/>
       <c r="S343" s="2"/>
       <c r="X343" s="2"/>
     </row>
-    <row r="344" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="344" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L344" s="2"/>
       <c r="S344" s="2"/>
       <c r="X344" s="2"/>
     </row>
-    <row r="345" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="345" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L345" s="2"/>
       <c r="S345" s="2"/>
       <c r="X345" s="2"/>
     </row>
-    <row r="346" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="346" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S346" s="2"/>
     </row>
-    <row r="347" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="347" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S347" s="2"/>
       <c r="X347" s="2"/>
     </row>
-    <row r="348" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="348" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S348" s="2"/>
     </row>
-    <row r="349" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="349" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S349" s="2"/>
       <c r="X349" s="2"/>
     </row>
-    <row r="350" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="350" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S350" s="2"/>
       <c r="X350" s="2"/>
     </row>
-    <row r="351" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="351" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S351" s="2"/>
     </row>
-    <row r="352" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="352" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S352" s="2"/>
     </row>
-    <row r="353" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="353" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S353" s="2"/>
     </row>
-    <row r="354" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="354" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S354" s="2"/>
       <c r="X354" s="2"/>
     </row>
-    <row r="355" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="355" spans="12:24" x14ac:dyDescent="0.3">
       <c r="X355" s="2"/>
     </row>
-    <row r="356" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="356" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S356" s="2"/>
       <c r="X356" s="2"/>
     </row>
-    <row r="357" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="357" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S357" s="2"/>
       <c r="X357" s="2"/>
     </row>
-    <row r="358" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="358" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S358" s="2"/>
       <c r="X358" s="2"/>
     </row>
-    <row r="359" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="359" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S359" s="2"/>
       <c r="X359" s="2"/>
     </row>
-    <row r="360" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="360" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L360" s="2"/>
       <c r="S360" s="2"/>
       <c r="X360" s="2"/>
     </row>
-    <row r="361" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="361" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L361" s="2"/>
       <c r="S361" s="2"/>
       <c r="X361" s="2"/>
     </row>
-    <row r="362" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="362" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L362" s="2"/>
       <c r="S362" s="2"/>
       <c r="X362" s="2"/>
     </row>
-    <row r="363" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="363" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L363" s="2"/>
       <c r="S363" s="2"/>
       <c r="X363" s="2"/>
     </row>
-    <row r="364" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="364" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L364" s="2"/>
       <c r="S364" s="2"/>
       <c r="X364" s="2"/>
     </row>
-    <row r="365" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="365" spans="12:24" x14ac:dyDescent="0.3">
       <c r="S365" s="2"/>
       <c r="X365" s="2"/>
     </row>
-    <row r="366" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="366" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L366" s="2"/>
       <c r="S366" s="2"/>
     </row>
-    <row r="367" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="367" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L367" s="2"/>
       <c r="S367" s="2"/>
     </row>
-    <row r="368" spans="12:24" x14ac:dyDescent="0.25">
+    <row r="368" spans="12:24" x14ac:dyDescent="0.3">
       <c r="L368" s="2"/>
       <c r="S368" s="2"/>
     </row>
-    <row r="369" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L369" s="2"/>
       <c r="S369" s="2"/>
     </row>
-    <row r="370" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L370" s="2"/>
       <c r="S370" s="2"/>
     </row>
-    <row r="371" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L371" s="2"/>
       <c r="S371" s="2"/>
     </row>
-    <row r="372" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L372" s="2"/>
       <c r="S372" s="2"/>
     </row>
-    <row r="373" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L373" s="2"/>
       <c r="S373" s="2"/>
     </row>
-    <row r="374" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L374" s="2"/>
       <c r="S374" s="2"/>
     </row>
-    <row r="375" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L375" s="2"/>
       <c r="S375" s="2"/>
     </row>
-    <row r="376" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L376" s="2"/>
       <c r="S376" s="2"/>
     </row>
-    <row r="377" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L377" s="2"/>
       <c r="S377" s="2"/>
     </row>
-    <row r="378" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="378" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L378" s="2"/>
       <c r="S378" s="2"/>
     </row>
-    <row r="379" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="379" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L379" s="2"/>
       <c r="S379" s="2"/>
     </row>
-    <row r="380" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="380" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L380" s="2"/>
       <c r="S380" s="2"/>
     </row>
-    <row r="381" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L381" s="2"/>
       <c r="S381" s="2"/>
     </row>
-    <row r="382" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L382" s="2"/>
       <c r="S382" s="2"/>
     </row>
-    <row r="383" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L383" s="2"/>
       <c r="S383" s="2"/>
     </row>
-    <row r="384" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S385" s="2"/>
     </row>
-    <row r="386" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S386" s="2"/>
     </row>
-    <row r="388" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S388" s="2"/>
     </row>
-    <row r="389" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S389" s="2"/>
     </row>
-    <row r="390" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S390" s="2"/>
     </row>
-    <row r="391" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S391" s="2"/>
     </row>
-    <row r="392" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S392" s="2"/>
     </row>
-    <row r="393" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S393" s="2"/>
     </row>
-    <row r="394" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S394" s="2"/>
     </row>
-    <row r="395" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S395" s="2"/>
     </row>
-    <row r="396" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S396" s="2"/>
     </row>
-    <row r="397" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S397" s="2"/>
     </row>
-    <row r="398" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S398" s="2"/>
     </row>
-    <row r="399" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S399" s="2"/>
     </row>
-    <row r="400" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S400" s="2"/>
     </row>
-    <row r="401" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S401" s="2"/>
     </row>
-    <row r="402" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S402" s="2"/>
     </row>
-    <row r="404" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S404" s="2"/>
     </row>
-    <row r="406" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="406" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S406" s="2"/>
     </row>
-    <row r="407" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="407" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S407" s="2"/>
     </row>
-    <row r="409" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="409" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S409" s="2"/>
     </row>
-    <row r="410" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S410" s="2"/>
     </row>
-    <row r="411" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S411" s="2"/>
     </row>
-    <row r="412" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S412" s="2"/>
     </row>
-    <row r="413" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S413" s="2"/>
     </row>
-    <row r="414" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S414" s="2"/>
     </row>
-    <row r="416" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S416" s="2"/>
     </row>
-    <row r="418" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="418" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S418" s="2"/>
     </row>
-    <row r="419" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="419" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S419" s="2"/>
     </row>
-    <row r="422" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S422" s="2"/>
     </row>
-    <row r="423" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S423" s="2"/>
     </row>
   </sheetData>

--- a/countries.xlsx
+++ b/countries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\source\repos\sat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\repos\sat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B573C-2FB7-4D5F-9CF7-8F1A85E695B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D22E587-FDD6-4D0A-8C80-18DEEB1AF356}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2496" windowWidth="17232" windowHeight="12204" xr2:uid="{BC4BFFBD-6ECB-3446-AE5A-428986AB9399}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="30960" windowHeight="12204" xr2:uid="{BC4BFFBD-6ECB-3446-AE5A-428986AB9399}"/>
   </bookViews>
   <sheets>
     <sheet name="!!!!!" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="767">
   <si>
     <t>Континент</t>
   </si>
@@ -2328,6 +2328,12 @@
   </si>
   <si>
     <t>JPN</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>arc</t>
   </si>
 </sst>
 </file>
@@ -2386,7 +2392,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2402,9 +2408,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2442,7 +2448,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2548,7 +2554,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2700,9 +2706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFC85D5-0E4A-114F-B58B-CB4CF6D9DE75}">
   <dimension ref="A1:AG423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D237" sqref="D237"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -26170,8 +26176,102 @@
       </c>
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="S242" s="3"/>
-      <c r="X242" s="2"/>
+      <c r="A242" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D242" s="2">
+        <v>0</v>
+      </c>
+      <c r="E242" s="2">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" s="2">
+        <v>0</v>
+      </c>
+      <c r="H242" s="2">
+        <v>1</v>
+      </c>
+      <c r="I242" s="2">
+        <v>0</v>
+      </c>
+      <c r="J242" s="2">
+        <v>0</v>
+      </c>
+      <c r="K242" s="2">
+        <v>1</v>
+      </c>
+      <c r="L242" s="2">
+        <v>0</v>
+      </c>
+      <c r="M242" s="2">
+        <v>0</v>
+      </c>
+      <c r="N242" s="2">
+        <v>0</v>
+      </c>
+      <c r="O242" s="2">
+        <v>1</v>
+      </c>
+      <c r="P242" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q242" s="2">
+        <v>0</v>
+      </c>
+      <c r="R242" s="2">
+        <v>0</v>
+      </c>
+      <c r="S242" s="3">
+        <v>0</v>
+      </c>
+      <c r="T242" s="2">
+        <v>0</v>
+      </c>
+      <c r="U242" s="2">
+        <v>0</v>
+      </c>
+      <c r="V242" s="2">
+        <v>0</v>
+      </c>
+      <c r="W242" s="2">
+        <v>0</v>
+      </c>
+      <c r="X242" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y242" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC242" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF242" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="AG242" s="2" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.3">
       <c r="S243" s="2"/>
